--- a/table/table/Guider.xlsx
+++ b/table/table/Guider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="client_Guider" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,6 +163,33 @@
   <si>
     <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiderUI_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个UI引导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistical</t>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>做完这步可认为结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>做统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -240,7 +263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,6 +278,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,21 +557,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -553,11 +580,12 @@
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,10 +596,11 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -582,10 +611,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -595,23 +627,29 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>10000</v>
       </c>
       <c r="B5" s="2">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>10001</v>
       </c>
@@ -621,31 +659,40 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="2">
+        <v>1000100</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>10003</v>
+        <v>10010</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1001000</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>10004</v>
+        <v>20000</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -657,29 +704,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.375" customWidth="1"/>
+    <col min="1" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,69 +741,111 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="B5" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>10001</v>
+        <v>1000100</v>
       </c>
       <c r="B6" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>10003</v>
+        <v>1001000</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>10004</v>
+        <v>2000000</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -772,13 +868,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -786,16 +882,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -806,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -817,10 +913,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -831,7 +927,7 @@
         <v>10000</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>

--- a/table/table/Guider.xlsx
+++ b/table/table/Guider.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -189,6 +189,119 @@
   </si>
   <si>
     <t>做统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lient</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UICamera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI相机出现变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common.GuiderTriggerType</t>
+  </si>
+  <si>
+    <t>begin_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_mask</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要遮罩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node_path</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_anim_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示动画类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common.GuiderAnimType</t>
+  </si>
+  <si>
+    <t>attach_ui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加UI动画</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -205,6 +318,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -216,6 +330,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -557,20 +672,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="4" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -583,9 +698,12 @@
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,9 +716,12 @@
       <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -613,11 +734,14 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -630,11 +754,14 @@
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>10000</v>
       </c>
@@ -647,9 +774,12 @@
       <c r="D5" s="2">
         <v>1000000</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>10001</v>
       </c>
@@ -662,9 +792,12 @@
       <c r="D6" s="2">
         <v>1000100</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>10010</v>
       </c>
@@ -677,9 +810,12 @@
       <c r="D7" s="2">
         <v>1001000</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>20000</v>
       </c>
@@ -692,7 +828,10 @@
       <c r="D8" s="2">
         <v>2000000</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -704,19 +843,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="4" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="24.625" customWidth="1"/>
+    <col min="10" max="12" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -727,13 +869,37 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,13 +910,37 @@
         <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -760,14 +950,38 @@
       <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -778,13 +992,37 @@
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1000000</v>
       </c>
@@ -794,12 +1032,32 @@
       <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1000100</v>
       </c>
@@ -809,12 +1067,28 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1001000</v>
       </c>
@@ -824,12 +1098,28 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>2000000</v>
       </c>
@@ -839,10 +1129,28 @@
       <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -857,7 +1165,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/table/table/Guider.xlsx
+++ b/table/table/Guider.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -302,6 +302,33 @@
   </si>
   <si>
     <t>附加UI动画</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common.Vec3</t>
+  </si>
+  <si>
+    <t>follow_offset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI动画偏移</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0^0^0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_pos</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示位置</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +372,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +428,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,10 +882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -855,17 +894,17 @@
     <col min="4" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="24.625" customWidth="1"/>
-    <col min="10" max="12" width="20.875" customWidth="1"/>
+    <col min="10" max="14" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -893,20 +932,26 @@
         <v>42</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -934,20 +979,26 @@
         <v>43</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -975,20 +1026,26 @@
         <v>38</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1016,13 +1073,19 @@
         <v>44</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1000000</v>
       </c>
@@ -1053,11 +1116,17 @@
         <v>1</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1000100</v>
       </c>
@@ -1085,10 +1154,16 @@
       <c r="K6" s="5">
         <v>1</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1001000</v>
       </c>
@@ -1116,10 +1191,16 @@
       <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>2000000</v>
       </c>
@@ -1149,8 +1230,14 @@
       <c r="K8" s="5">
         <v>1</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="2"/>
+      <c r="L8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/table/table/Guider.xlsx
+++ b/table/table/Guider.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -330,6 +330,26 @@
   <si>
     <t>提示位置</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canvas/Button1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canvas/Button2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canvas/Button3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级引导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -362,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +398,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,6 +460,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,7 +749,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -801,29 +836,31 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="A5" s="8">
+        <v>10010</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1001000</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>10001</v>
+        <v>10020</v>
       </c>
       <c r="B6" s="2">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -838,7 +875,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>10010</v>
+        <v>10030</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -882,10 +919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1086,129 +1123,135 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="A5" s="8">
+        <v>1001000</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1001001</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="2"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>1000100</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
-        <v>2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2</v>
-      </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="A6" s="8">
+        <v>1001001</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1001002</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>1001000</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="A7" s="8">
+        <v>1001002</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
+      <c r="M7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="2"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>2000000</v>
+        <v>1000100</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -1218,14 +1261,12 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="5">
         <v>1</v>
@@ -1238,6 +1279,82 @@
         <v>60</v>
       </c>
       <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>1003000</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/table/table/Guider.xlsx
+++ b/table/table/Guider.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -350,6 +350,10 @@
   <si>
     <t>1级引导</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0^-84^0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -921,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1136,7 +1140,7 @@
         <v>63</v>
       </c>
       <c r="E5" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="8">
@@ -1153,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>48</v>

--- a/table/table/Guider.xlsx
+++ b/table/table/Guider.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -353,6 +353,96 @@
   </si>
   <si>
     <t>{0^-84^0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common.GuiderFollowType</t>
+  </si>
+  <si>
+    <t>follow_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI动画刷新频率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_replacement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用替代物体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>替代物大小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>replacement_size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>replacement_offset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>替代物偏移</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{100^20^0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0^0^0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common.GuiderEvent</t>
+  </si>
+  <si>
+    <t>begin_event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始事件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束事件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_3d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是3D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera_3d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D相机</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -923,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -935,10 +1025,10 @@
     <col min="4" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="24.625" customWidth="1"/>
-    <col min="10" max="14" width="20.875" customWidth="1"/>
+    <col min="10" max="22" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -981,11 +1071,35 @@
       <c r="N1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1029,10 +1143,34 @@
         <v>57</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1075,11 +1213,35 @@
       <c r="N3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1122,11 +1284,35 @@
       <c r="N4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1001000</v>
       </c>
@@ -1165,9 +1351,23 @@
       <c r="N5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10"/>
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>1001001</v>
       </c>
@@ -1204,9 +1404,27 @@
       <c r="N6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O6" s="10">
+        <v>1</v>
+      </c>
+      <c r="P6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10"/>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>1001002</v>
       </c>
@@ -1245,9 +1463,23 @@
       <c r="N7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O7" s="10">
+        <v>2</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10"/>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>1000100</v>
       </c>
@@ -1282,9 +1514,23 @@
       <c r="N8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>1003000</v>
       </c>
@@ -1319,9 +1565,23 @@
       <c r="N9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>2000000</v>
       </c>
@@ -1358,7 +1618,21 @@
       <c r="N10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="2"/>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/table/table/Guider.xlsx
+++ b/table/table/Guider.xlsx
@@ -1015,17 +1015,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="24.625" customWidth="1"/>
-    <col min="10" max="22" width="20.875" customWidth="1"/>
+    <col min="4" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="10" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="24.625" customWidth="1"/>
+    <col min="12" max="22" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
@@ -1039,40 +1040,40 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>73</v>
@@ -1110,40 +1111,40 @@
         <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="I2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>74</v>
@@ -1180,41 +1181,41 @@
       <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>71</v>
@@ -1252,40 +1253,40 @@
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="I4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>75</v>
@@ -1322,37 +1323,37 @@
       <c r="C5" s="10">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="10">
+      <c r="G5" s="10">
         <v>10</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10">
-        <v>1</v>
-      </c>
-      <c r="L5" s="10" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="10">
+        <v>1</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0</v>
       </c>
       <c r="P5" s="10">
         <v>0</v>
@@ -1377,35 +1378,35 @@
       <c r="C6" s="10">
         <v>0</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10" t="s">
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10" t="s">
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="O6" s="10">
-        <v>1</v>
       </c>
       <c r="P6" s="10">
         <v>1</v>
@@ -1434,37 +1435,37 @@
       <c r="C7" s="10">
         <v>0</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="J7" s="10">
+        <v>2</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="O7" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="O7" s="10">
-        <v>2</v>
       </c>
       <c r="P7" s="10">
         <v>0</v>
@@ -1489,33 +1490,33 @@
       <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="L8" s="4">
         <v>2</v>
       </c>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" s="5">
-        <v>0</v>
       </c>
       <c r="P8" s="5">
         <v>0</v>
@@ -1540,33 +1541,33 @@
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0</v>
       </c>
       <c r="P9" s="5">
         <v>0</v>
@@ -1591,35 +1592,35 @@
       <c r="C10" s="5">
         <v>0</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5">
-        <v>0</v>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0</v>
       </c>
       <c r="P10" s="5">
         <v>0</v>
